--- a/medicine/Handicap/Syndrome_de_Niikawa-Kuroki/Syndrome_de_Niikawa-Kuroki.xlsx
+++ b/medicine/Handicap/Syndrome_de_Niikawa-Kuroki/Syndrome_de_Niikawa-Kuroki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Niikawa-Kuroki, plus communément surnommé syndrome kabuki, est une maladie congénitale associant :
 un retard psychomoteur ;
@@ -517,9 +529,11 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Des mutations sur les gènes MLL2[1] et KDM6A[2] ont été identifiées chez certains patients.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Des mutations sur les gènes MLL2 et KDM6A ont été identifiées chez certains patients.</t>
         </is>
       </c>
     </row>
@@ -547,7 +561,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Japon, où ce syndrome a été pour la première fois décrit par Norio Niikawa, la prévalence serait de 1 sur 32 000.
 Plusieurs cas sont maintenant décrits dans différentes populations.
@@ -579,7 +595,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À la naissance, l'enfant présente un poids normal mais il existe parfois une microcéphalie. Les enfants atteints par cette maladie présentent plus de neuf fois sur dix :
 Retard de croissance
@@ -623,7 +641,9 @@
           <t>Transmission</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Transmission autosomique non dominante</t>
         </is>
